--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22976146030151</v>
+        <v>1.296436</v>
       </c>
       <c r="H2">
-        <v>1.22976146030151</v>
+        <v>3.889308000000001</v>
       </c>
       <c r="I2">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="J2">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.2902979613062</v>
+        <v>1.539665666666667</v>
       </c>
       <c r="N2">
-        <v>1.2902979613062</v>
+        <v>4.618997</v>
       </c>
       <c r="O2">
-        <v>0.5044191609537466</v>
+        <v>0.3572088291809875</v>
       </c>
       <c r="P2">
-        <v>0.5044191609537466</v>
+        <v>0.3572088291809875</v>
       </c>
       <c r="Q2">
-        <v>1.586758705119974</v>
+        <v>1.996077998230667</v>
       </c>
       <c r="R2">
-        <v>1.586758705119974</v>
+        <v>17.964701984076</v>
       </c>
       <c r="S2">
-        <v>0.0959112836739644</v>
+        <v>0.06946549071113942</v>
       </c>
       <c r="T2">
-        <v>0.0959112836739644</v>
+        <v>0.06946549071113942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22976146030151</v>
+        <v>1.296436</v>
       </c>
       <c r="H3">
-        <v>1.22976146030151</v>
+        <v>3.889308000000001</v>
       </c>
       <c r="I3">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="J3">
-        <v>0.1901420308709469</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.26768964342025</v>
+        <v>1.452872333333333</v>
       </c>
       <c r="N3">
-        <v>1.26768964342025</v>
+        <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.4955808390462534</v>
+        <v>0.3370724153789985</v>
       </c>
       <c r="P3">
-        <v>0.4955808390462534</v>
+        <v>0.3370724153789985</v>
       </c>
       <c r="Q3">
-        <v>1.558955867101587</v>
+        <v>1.883555996337334</v>
       </c>
       <c r="R3">
-        <v>1.558955867101587</v>
+        <v>16.952003967036</v>
       </c>
       <c r="S3">
-        <v>0.09423074719698246</v>
+        <v>0.06554961363406694</v>
       </c>
       <c r="T3">
-        <v>0.09423074719698246</v>
+        <v>0.06554961363406694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.77997283067663</v>
+        <v>1.296436</v>
       </c>
       <c r="H4">
-        <v>1.77997283067663</v>
+        <v>3.889308000000001</v>
       </c>
       <c r="I4">
-        <v>0.2752140637396318</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="J4">
-        <v>0.2752140637396318</v>
+        <v>0.1944674516316147</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.2902979613062</v>
+        <v>1.317729666666667</v>
       </c>
       <c r="N4">
-        <v>1.2902979613062</v>
+        <v>3.953189</v>
       </c>
       <c r="O4">
-        <v>0.5044191609537466</v>
+        <v>0.3057187554400141</v>
       </c>
       <c r="P4">
-        <v>0.5044191609537466</v>
+        <v>0.3057187554400141</v>
       </c>
       <c r="Q4">
-        <v>2.296695314602482</v>
+        <v>1.708352178134667</v>
       </c>
       <c r="R4">
-        <v>2.296695314602482</v>
+        <v>15.375169603212</v>
       </c>
       <c r="S4">
-        <v>0.138823247114216</v>
+        <v>0.0594523472864084</v>
       </c>
       <c r="T4">
-        <v>0.138823247114216</v>
+        <v>0.0594523472864084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.77997283067663</v>
+        <v>1.837275666666667</v>
       </c>
       <c r="H5">
-        <v>1.77997283067663</v>
+        <v>5.511827</v>
       </c>
       <c r="I5">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="J5">
-        <v>0.2752140637396318</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.26768964342025</v>
+        <v>1.539665666666667</v>
       </c>
       <c r="N5">
-        <v>1.26768964342025</v>
+        <v>4.618997</v>
       </c>
       <c r="O5">
-        <v>0.4955808390462534</v>
+        <v>0.3572088291809875</v>
       </c>
       <c r="P5">
-        <v>0.4955808390462534</v>
+        <v>0.3572088291809875</v>
       </c>
       <c r="Q5">
-        <v>2.25645312301819</v>
+        <v>2.828790264168778</v>
       </c>
       <c r="R5">
-        <v>2.25645312301819</v>
+        <v>25.459112377519</v>
       </c>
       <c r="S5">
-        <v>0.1363908166254158</v>
+        <v>0.09844470205751446</v>
       </c>
       <c r="T5">
-        <v>0.1363908166254158</v>
+        <v>0.09844470205751446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.45785972108</v>
+        <v>1.837275666666667</v>
       </c>
       <c r="H6">
-        <v>3.45785972108</v>
+        <v>5.511827</v>
       </c>
       <c r="I6">
-        <v>0.5346439053894213</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="J6">
-        <v>0.5346439053894213</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.2902979613062</v>
+        <v>1.452872333333333</v>
       </c>
       <c r="N6">
-        <v>1.2902979613062</v>
+        <v>4.358617</v>
       </c>
       <c r="O6">
-        <v>0.5044191609537466</v>
+        <v>0.3370724153789985</v>
       </c>
       <c r="P6">
-        <v>0.5044191609537466</v>
+        <v>0.3370724153789985</v>
       </c>
       <c r="Q6">
-        <v>4.461669348592349</v>
+        <v>2.669326984806556</v>
       </c>
       <c r="R6">
-        <v>4.461669348592349</v>
+        <v>24.023942863259</v>
       </c>
       <c r="S6">
-        <v>0.2696846301655662</v>
+        <v>0.09289522204665156</v>
       </c>
       <c r="T6">
-        <v>0.2696846301655662</v>
+        <v>0.09289522204665156</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.45785972108</v>
+        <v>1.837275666666667</v>
       </c>
       <c r="H7">
-        <v>3.45785972108</v>
+        <v>5.511827</v>
       </c>
       <c r="I7">
-        <v>0.5346439053894213</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="J7">
-        <v>0.5346439053894213</v>
+        <v>0.2755942575194169</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.26768964342025</v>
+        <v>1.317729666666667</v>
       </c>
       <c r="N7">
-        <v>1.26768964342025</v>
+        <v>3.953189</v>
       </c>
       <c r="O7">
-        <v>0.4955808390462534</v>
+        <v>0.3057187554400141</v>
       </c>
       <c r="P7">
-        <v>0.4955808390462534</v>
+        <v>0.3057187554400141</v>
       </c>
       <c r="Q7">
-        <v>4.383492956813151</v>
+        <v>2.421032651811445</v>
       </c>
       <c r="R7">
-        <v>4.383492956813151</v>
+        <v>21.789293866303</v>
       </c>
       <c r="S7">
-        <v>0.2649592752238551</v>
+        <v>0.08425433341525086</v>
       </c>
       <c r="T7">
-        <v>0.2649592752238551</v>
+        <v>0.08425433341525086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.532884666666666</v>
+      </c>
+      <c r="H8">
+        <v>10.598654</v>
+      </c>
+      <c r="I8">
+        <v>0.5299382908489685</v>
+      </c>
+      <c r="J8">
+        <v>0.5299382908489685</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.539665666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.618997</v>
+      </c>
+      <c r="O8">
+        <v>0.3572088291809875</v>
+      </c>
+      <c r="P8">
+        <v>0.3572088291809875</v>
+      </c>
+      <c r="Q8">
+        <v>5.439461225559778</v>
+      </c>
+      <c r="R8">
+        <v>48.955151030038</v>
+      </c>
+      <c r="S8">
+        <v>0.1892986364123337</v>
+      </c>
+      <c r="T8">
+        <v>0.1892986364123337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.532884666666666</v>
+      </c>
+      <c r="H9">
+        <v>10.598654</v>
+      </c>
+      <c r="I9">
+        <v>0.5299382908489685</v>
+      </c>
+      <c r="J9">
+        <v>0.5299382908489685</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.452872333333333</v>
+      </c>
+      <c r="N9">
+        <v>4.358617</v>
+      </c>
+      <c r="O9">
+        <v>0.3370724153789985</v>
+      </c>
+      <c r="P9">
+        <v>0.3370724153789985</v>
+      </c>
+      <c r="Q9">
+        <v>5.132830389057555</v>
+      </c>
+      <c r="R9">
+        <v>46.19547350151799</v>
+      </c>
+      <c r="S9">
+        <v>0.17862757969828</v>
+      </c>
+      <c r="T9">
+        <v>0.17862757969828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.532884666666666</v>
+      </c>
+      <c r="H10">
+        <v>10.598654</v>
+      </c>
+      <c r="I10">
+        <v>0.5299382908489685</v>
+      </c>
+      <c r="J10">
+        <v>0.5299382908489685</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.317729666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.953189</v>
+      </c>
+      <c r="O10">
+        <v>0.3057187554400141</v>
+      </c>
+      <c r="P10">
+        <v>0.3057187554400141</v>
+      </c>
+      <c r="Q10">
+        <v>4.655386934178444</v>
+      </c>
+      <c r="R10">
+        <v>41.898482407606</v>
+      </c>
+      <c r="S10">
+        <v>0.1620120747383549</v>
+      </c>
+      <c r="T10">
+        <v>0.1620120747383549</v>
       </c>
     </row>
   </sheetData>
